--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20055" windowHeight="9210"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20055" windowHeight="9210" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="4" r:id="rId2"/>
+    <sheet name="TestCaseList" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>C1</t>
   </si>
@@ -26,9 +27,6 @@
     <t>C11</t>
   </si>
   <si>
-    <t>Radio</t>
-  </si>
-  <si>
     <t>C22</t>
   </si>
   <si>
@@ -38,9 +36,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
     <t>Test Case name must be mentioned in Col A</t>
   </si>
   <si>
@@ -83,9 +78,6 @@
     <t>Surname</t>
   </si>
   <si>
-    <t>Telephony</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
@@ -150,6 +142,30 @@
   </si>
   <si>
     <t>Ad2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>TestA</t>
+  </si>
+  <si>
+    <t>TestB</t>
+  </si>
+  <si>
+    <t>TestC</t>
+  </si>
+  <si>
+    <t>ExecutionMode</t>
+  </si>
+  <si>
+    <t>TesCaseName</t>
   </si>
 </sst>
 </file>
@@ -495,11 +511,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -509,61 +523,61 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -572,51 +586,54 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -625,112 +642,130 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -755,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -763,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -771,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -779,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -787,7 +822,56 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
